--- a/BackTest/2019-10-29 BackTest OMG.xlsx
+++ b/BackTest/2019-10-29 BackTest OMG.xlsx
@@ -6751,13 +6751,17 @@
         <v>1194.45</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1184</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1184</v>
+      </c>
       <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
@@ -6786,14 +6790,22 @@
         <v>1193.5</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1184</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6821,14 +6833,22 @@
         <v>1191.7</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1184</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6862,8 +6882,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +6923,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +6964,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7005,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7002,8 +7046,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7031,18 +7081,18 @@
         <v>1185</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>1183</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1184</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -7072,15 +7122,15 @@
         <v>1184.7</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>1185</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1184</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7113,15 +7163,15 @@
         <v>1184.35</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>1185</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1184</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7154,15 +7204,15 @@
         <v>1184.05</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>1186</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1184</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7195,15 +7245,15 @@
         <v>1183.75</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>1186</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1184</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7236,15 +7286,15 @@
         <v>1183.45</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>1186</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1184</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7277,15 +7327,15 @@
         <v>1183.4</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>1192</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1184</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7318,15 +7368,15 @@
         <v>1183.55</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>1192</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1184</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7367,7 +7417,9 @@
       <c r="J198" t="n">
         <v>1192</v>
       </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1184</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7400,13 +7452,17 @@
         <v>1184.25</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1196</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1184</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7445,7 +7501,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1184</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7484,7 +7542,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1184</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7523,7 +7583,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1184</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7562,7 +7624,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1184</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7601,7 +7665,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1184</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7640,7 +7706,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1184</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7679,7 +7747,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1184</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7718,7 +7788,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1184</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7757,7 +7829,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1184</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7796,7 +7870,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1184</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7835,7 +7911,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1184</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7874,7 +7952,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1184</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7913,7 +7993,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1184</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7952,7 +8034,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1184</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7991,7 +8075,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1184</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8030,7 +8116,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1184</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8069,7 +8157,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1184</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8108,7 +8198,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1184</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8147,7 +8239,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1184</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8186,7 +8280,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1184</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8225,7 +8321,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1184</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8264,7 +8362,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1184</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8303,7 +8403,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1184</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8342,7 +8444,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1184</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8381,7 +8485,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1184</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8420,7 +8526,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1184</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8453,15 +8561,15 @@
         <v>1191.15</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>1182</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1184</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8494,15 +8602,15 @@
         <v>1190.45</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1184</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8535,15 +8643,15 @@
         <v>1190.15</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1184</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8576,15 +8684,15 @@
         <v>1189.85</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1184</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8617,15 +8725,15 @@
         <v>1189.65</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1184</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8658,15 +8766,15 @@
         <v>1189.4</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1184</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8699,15 +8807,15 @@
         <v>1188.95</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1184</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8740,15 +8848,15 @@
         <v>1188.95</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1184</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8781,15 +8889,15 @@
         <v>1189.05</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>1189</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1184</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8822,15 +8930,15 @@
         <v>1188.9</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>1193</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1184</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8863,15 +8971,15 @@
         <v>1188.9</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>1195</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1184</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8904,15 +9012,15 @@
         <v>1188.95</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>1191</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1184</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8945,15 +9053,15 @@
         <v>1189.05</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>1191</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1184</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8986,15 +9094,15 @@
         <v>1188.95</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>1181</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1184</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9027,15 +9135,15 @@
         <v>1187.95</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>1176</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1184</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,15 +9176,15 @@
         <v>1187.1</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>1178</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1184</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9109,15 +9217,15 @@
         <v>1186</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>1175</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1184</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9150,15 +9258,15 @@
         <v>1185</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>1177</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1184</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,15 +9299,15 @@
         <v>1184.85</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>1177</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1184</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9232,15 +9340,15 @@
         <v>1184.7</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1184</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9273,15 +9381,15 @@
         <v>1184.7</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>1182</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1184</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9314,15 +9422,15 @@
         <v>1184.35</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1184</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9355,15 +9463,15 @@
         <v>1184.4</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>1188</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1184</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9396,15 +9504,15 @@
         <v>1184.5</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>1189</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1184</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9437,15 +9545,15 @@
         <v>1183.95</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>1176</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1184</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9478,15 +9586,15 @@
         <v>1183.4</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>1176</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1184</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9519,15 +9627,15 @@
         <v>1183.05</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>1180</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1184</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,15 +9668,15 @@
         <v>1182.95</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>1185</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1184</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9601,15 +9709,15 @@
         <v>1183.2</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>1194</v>
-      </c>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1184</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9642,15 +9750,15 @@
         <v>1183.6</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>1201</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1184</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9683,15 +9791,15 @@
         <v>1183.9</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>1201</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1184</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9724,15 +9832,15 @@
         <v>1184.4</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>1201</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1184</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9771,7 +9879,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1184</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9810,7 +9920,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1184</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9849,7 +9961,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1184</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9888,7 +10002,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1184</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9927,7 +10043,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1184</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9960,15 +10078,15 @@
         <v>1187.3</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>1187</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1184</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10001,15 +10119,15 @@
         <v>1187.65</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>1184</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1184</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10042,15 +10160,15 @@
         <v>1188.45</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>1196</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1184</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10083,15 +10201,15 @@
         <v>1189.15</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>1196</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1184</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10124,15 +10242,15 @@
         <v>1189.75</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>1192</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1184</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10171,7 +10289,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1184</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10210,7 +10330,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1184</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10249,7 +10371,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1184</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10288,7 +10412,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1184</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10327,7 +10453,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1184</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10366,7 +10494,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1184</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10405,7 +10535,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1184</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10444,7 +10576,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1184</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10483,7 +10617,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1184</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10522,7 +10658,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1184</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10561,7 +10699,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1184</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10600,7 +10740,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1184</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10639,7 +10781,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1184</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10678,7 +10822,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1184</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10717,7 +10863,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1184</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10756,7 +10904,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1184</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10795,7 +10945,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1184</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10834,7 +10986,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1184</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10873,7 +11027,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1184</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10912,7 +11068,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1184</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10951,7 +11109,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1184</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10990,7 +11150,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1184</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11029,7 +11191,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1184</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11068,7 +11232,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1184</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11107,7 +11273,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1184</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11146,7 +11314,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1184</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11185,7 +11355,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1184</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11224,7 +11396,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1184</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11263,7 +11437,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1184</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11302,7 +11478,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1184</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11341,7 +11519,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1184</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11380,7 +11560,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1184</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11419,7 +11601,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1184</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11458,7 +11642,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1184</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11497,7 +11683,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1184</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11536,7 +11724,9 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1184</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11575,7 +11765,9 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1184</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11614,7 +11806,9 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1184</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11653,7 +11847,9 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1184</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11692,7 +11888,9 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1184</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11731,7 +11929,9 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1184</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11770,7 +11970,9 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1184</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11809,7 +12011,9 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1184</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11848,7 +12052,9 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1184</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11887,7 +12093,9 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1184</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11926,7 +12134,9 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1184</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11965,7 +12175,9 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1184</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12004,7 +12216,9 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1184</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12043,7 +12257,9 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1184</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12082,7 +12298,9 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1184</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12121,7 +12339,9 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1184</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12160,7 +12380,9 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1184</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12199,7 +12421,9 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1184</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12238,7 +12462,9 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1184</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12277,7 +12503,9 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1184</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12316,7 +12544,9 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1184</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12355,7 +12585,9 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1184</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12394,7 +12626,9 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1184</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12433,7 +12667,9 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1184</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12472,7 +12708,9 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1184</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12508,16 +12746,20 @@
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1184</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M328" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12545,11 +12787,17 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12580,11 +12828,17 @@
         <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12615,11 +12869,17 @@
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12653,10 +12913,16 @@
         <v>1</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1184</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M332" t="n">
-        <v>1</v>
+        <v>1.06847972972973</v>
       </c>
     </row>
     <row r="333">
@@ -12755,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
@@ -12790,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
@@ -12825,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest OMG.xlsx
+++ b/BackTest/2019-10-29 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>24998.1915</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>24004.7004</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>24040.09</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>23240.09</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>23944.3525</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>24047.3919</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>22811.33804902121</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>39814.70304902121</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>28787.22224902121</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>29057.96904902121</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>29256.11633574617</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>26022.59683574617</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>26653.62933172409</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>28616.67893574617</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>22003.07709811009</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>21243.22269811009</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>21806.39309811009</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>19496.0506538053</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>17969.2301538053</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>18059.9136538053</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>17902.8296538053</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>17892.8296538053</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>17892.8296538053</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>17764.6296538053</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>17664.6296538053</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>14408.6152538053</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>14408.6152538053</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>14408.6152538053</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>14600.0429538053</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>14600.0429538053</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>14128.4597538053</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>14118.4597538053</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>14279.5940538053</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>14170.0017538053</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>14174.5322538053</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>13968.4628538053</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>14041.0478538053</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>13749.7268538053</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>13749.7268538053</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>13966.0543538053</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>14592.31885380529</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>14993.6621538053</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>15043.61725380529</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>15185.14235380529</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>15183.69975380529</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>15168.10595380529</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>15268.38425380529</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>15265.73232010364</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>15088.88612010364</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>16199.15542010364</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>12932.05132010364</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>12932.05132010364</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>12915.57692010364</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>12931.57851627283</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>12626.54461627283</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>16411.90081627283</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>16445.87291627283</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>13396.68651627283</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>13403.25651627283</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>13437.15651627283</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>13467.69861627283</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>13782.69861627283</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>13782.69861627283</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>16977.44241627283</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>16912.12661627283</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>16581.12661627283</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>17341.21421627283</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>17281.38221627283</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>17281.38221627283</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>17281.38221627283</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>17138.38221627283</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>18166.81321627283</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>18110.54621627283</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>18129.13911627283</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>18131.46571627283</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>17240.37511627283</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>17235.38761627283</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>17375.45691627283</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>17278.01991627283</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>17340.07653509261</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>16223.17983509261</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>16124.90223509261</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>14853.55623509261</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>14853.55623509261</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>14853.55623509261</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>14808.86653509261</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>14808.86653509261</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>14808.86653509261</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>12228.35653509261</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>10505.02113509261</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -8008,10 +8008,14 @@
         <v>-552.0705380883159</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1190</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1190</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
@@ -8041,11 +8045,19 @@
         <v>-552.0705380883159</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1192</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8086,19 @@
         <v>-552.0705380883159</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1192</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1190</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8292,17 @@
         <v>-3382.260438088315</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1187</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8331,17 @@
         <v>-3379.253638088315</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1180</v>
+      </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8370,17 @@
         <v>-3379.253638088315</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1184</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8409,17 @@
         <v>-3379.253638088315</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>1184</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8452,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8489,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8526,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8563,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8600,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8637,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8674,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8707,17 @@
         <v>-7798.076538088314</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1184</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,15 +8746,17 @@
         <v>-7798.076538088314</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>1185</v>
       </c>
-      <c r="J251" t="n">
-        <v>1185</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,15 +8785,15 @@
         <v>-7625.898738088314</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
         <v>1185</v>
       </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L252" t="n">
@@ -8744,17 +8824,15 @@
         <v>-7625.898738088314</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>1186</v>
       </c>
-      <c r="J253" t="n">
-        <v>1185</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -8785,11 +8863,17 @@
         <v>-7625.898738088314</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1186</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8818,11 +8902,17 @@
         <v>-7604.187738088313</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1186</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8855,7 +8945,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8888,7 +8982,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8921,7 +9019,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8954,7 +9056,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8987,7 +9093,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9020,7 +9130,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9053,7 +9167,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9086,7 +9204,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9119,7 +9241,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9152,7 +9278,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9185,7 +9315,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9218,7 +9352,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9251,7 +9389,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9284,7 +9426,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9317,7 +9463,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9346,11 +9496,17 @@
         <v>-9460.728275910422</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1192</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +9539,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9412,11 +9572,17 @@
         <v>-7195.997475910423</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1187</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9445,11 +9611,17 @@
         <v>-7195.997475910423</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1196</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9482,7 +9654,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9515,7 +9691,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9548,7 +9728,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9577,11 +9761,17 @@
         <v>-7576.043475910423</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1185</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9610,11 +9800,17 @@
         <v>-7564.419575910423</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1193</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9643,15 +9839,15 @@
         <v>-7592.919575910423</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1196</v>
-      </c>
-      <c r="J280" t="n">
-        <v>1196</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9680,17 +9876,13 @@
         <v>-6413.751675910424</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1195</v>
-      </c>
-      <c r="J281" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L281" t="n">
@@ -9721,17 +9913,13 @@
         <v>-6736.369675910424</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J282" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
@@ -9762,14 +9950,10 @@
         <v>-7008.594875910424</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>1188</v>
-      </c>
-      <c r="J283" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9803,14 +9987,10 @@
         <v>-6657.152075910424</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>1175</v>
-      </c>
-      <c r="J284" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9844,14 +10024,10 @@
         <v>-6657.152075910424</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>1181</v>
-      </c>
-      <c r="J285" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9885,14 +10061,12 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>1181</v>
       </c>
-      <c r="J286" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9926,14 +10100,12 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>1187</v>
       </c>
-      <c r="J287" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9967,14 +10139,10 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1187</v>
-      </c>
-      <c r="J288" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10008,14 +10176,10 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1187</v>
-      </c>
-      <c r="J289" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10049,14 +10213,10 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1187</v>
-      </c>
-      <c r="J290" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10090,14 +10250,10 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1187</v>
-      </c>
-      <c r="J291" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10131,14 +10287,10 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1187</v>
-      </c>
-      <c r="J292" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10172,14 +10324,10 @@
         <v>-364.3264767479454</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1187</v>
-      </c>
-      <c r="J293" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10216,9 +10364,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10255,9 +10401,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10294,9 +10438,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10330,14 +10472,10 @@
         <v>-997.793162522004</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1191</v>
-      </c>
-      <c r="J297" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10371,14 +10509,12 @@
         <v>-1002.189062522004</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>1186</v>
       </c>
-      <c r="J298" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10412,14 +10548,12 @@
         <v>-1054.045762522004</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>1176</v>
       </c>
-      <c r="J299" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10453,14 +10587,12 @@
         <v>-1024.968362522004</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>1175</v>
       </c>
-      <c r="J300" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10494,14 +10626,12 @@
         <v>-1086.261462522004</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>1178</v>
       </c>
-      <c r="J301" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10535,14 +10665,12 @@
         <v>-1086.261462522004</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>1175</v>
       </c>
-      <c r="J302" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10576,14 +10704,12 @@
         <v>-597.4733625220042</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>1175</v>
       </c>
-      <c r="J303" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10617,14 +10743,12 @@
         <v>88.91643747799583</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>1180</v>
       </c>
-      <c r="J304" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10658,14 +10782,12 @@
         <v>338.9164374779958</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>1181</v>
       </c>
-      <c r="J305" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10699,14 +10821,12 @@
         <v>299.2859374779958</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>1182</v>
       </c>
-      <c r="J306" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10740,12 +10860,12 @@
         <v>255.0942374779958</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1196</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>1180</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10779,12 +10899,12 @@
         <v>265.0942374779959</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1196</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1176</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10821,9 +10941,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10860,9 +10978,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10899,9 +11015,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10938,9 +11052,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10977,9 +11089,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11016,9 +11126,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11055,9 +11163,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11094,9 +11200,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11133,9 +11237,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11172,9 +11274,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11211,9 +11311,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11250,9 +11348,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11286,14 +11382,10 @@
         <v>1027.259237477996</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>1180</v>
-      </c>
-      <c r="J321" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11330,9 +11422,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11369,9 +11459,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11408,9 +11496,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11447,9 +11533,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11486,9 +11570,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11525,9 +11607,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11564,9 +11644,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11603,9 +11681,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11642,9 +11718,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11681,9 +11755,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11720,9 +11792,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11759,9 +11829,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11798,9 +11866,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11837,9 +11903,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11876,9 +11940,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11915,9 +11977,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11954,9 +12014,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11993,9 +12051,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12032,9 +12088,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12071,9 +12125,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12110,9 +12162,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12149,9 +12199,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12188,9 +12236,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12227,9 +12273,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12266,9 +12310,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12305,9 +12347,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12344,9 +12384,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12380,14 +12418,10 @@
         <v>3560.717837477996</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>1203</v>
-      </c>
-      <c r="J349" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12424,9 +12458,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12463,9 +12495,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12502,9 +12532,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12541,9 +12569,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12580,9 +12606,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12619,9 +12643,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12658,9 +12680,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12697,9 +12717,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12736,9 +12754,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12775,9 +12791,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12814,9 +12828,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12853,9 +12865,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12892,9 +12902,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12931,9 +12939,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12970,9 +12976,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13009,9 +13013,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13048,9 +13050,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13084,19 +13084,17 @@
         <v>6823.905037477996</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>1196</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L367" t="n">
-        <v>1.011722408026756</v>
+        <v>1</v>
       </c>
       <c r="M367" t="inlineStr"/>
     </row>
@@ -13127,7 +13125,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13162,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13199,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13236,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13269,15 @@
         <v>7096.536837477997</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13306,15 @@
         <v>5997.096837477997</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13343,15 @@
         <v>7118.359237477996</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13380,15 @@
         <v>7121.999237477997</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13417,15 @@
         <v>7121.999237477997</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13454,15 @@
         <v>7121.999237477997</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13491,15 @@
         <v>6052.925037477997</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13528,15 @@
         <v>6068.354337477997</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13569,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +13606,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13639,15 @@
         <v>6422.431637477996</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13676,15 @@
         <v>6520.854037477997</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13713,15 @@
         <v>6546.422537477997</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13750,15 @@
         <v>6953.169937477997</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13787,15 @@
         <v>6953.169937477997</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13824,15 @@
         <v>12123.930437478</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13861,15 @@
         <v>12361.196937478</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +13898,15 @@
         <v>14254.16633084293</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +13935,15 @@
         <v>16950.35363084292</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +13972,15 @@
         <v>16017.44893084293</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +14009,15 @@
         <v>15891.96723084293</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14046,15 @@
         <v>16523.16723084293</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14083,15 @@
         <v>17992.74243084293</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14120,15 @@
         <v>19161.81649320684</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +14157,15 @@
         <v>19134.32649320684</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14194,15 @@
         <v>18987.28829320684</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14231,15 @@
         <v>15767.26739320684</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +14268,15 @@
         <v>18581.98786501999</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +14305,15 @@
         <v>18223.4221279682</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14346,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14383,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14420,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14457,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14494,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14531,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14568,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14605,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14642,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14679,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +14716,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +14753,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14790,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +14827,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +14864,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +14901,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +14938,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +14975,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14806,14 +15008,16 @@
         <v>18237.0761279682</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="inlineStr"/>
     </row>
     <row r="420">
@@ -14839,7 +15043,7 @@
         <v>18949.8263279682</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14872,7 +15076,7 @@
         <v>16842.0917279682</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14905,7 +15109,7 @@
         <v>15853.1383279682</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14938,7 +15142,7 @@
         <v>17289.2560279682</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14971,7 +15175,7 @@
         <v>17041.5452279682</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15004,7 +15208,7 @@
         <v>17370.3218279682</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15037,7 +15241,7 @@
         <v>17338.4170279682</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15070,7 +15274,7 @@
         <v>17207.2461279682</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15103,7 +15307,7 @@
         <v>17702.2761279682</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15136,7 +15340,7 @@
         <v>17773.5196279682</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15169,7 +15373,7 @@
         <v>17816.3485279682</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15202,7 +15406,7 @@
         <v>18433.5894279682</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15235,7 +15439,7 @@
         <v>18380.0702279682</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15268,7 +15472,7 @@
         <v>17780.1341279682</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15301,7 +15505,7 @@
         <v>18589.4185279682</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15334,7 +15538,7 @@
         <v>18589.0770279682</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15367,7 +15571,7 @@
         <v>18597.5521279682</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15400,7 +15604,7 @@
         <v>18762.6196279682</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15433,7 +15637,7 @@
         <v>17975.71462796821</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15466,7 +15670,7 @@
         <v>17975.71462796821</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15499,7 +15703,7 @@
         <v>17327.11514718981</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15532,7 +15736,7 @@
         <v>17327.11514718981</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15565,7 +15769,7 @@
         <v>17327.11514718981</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15598,7 +15802,7 @@
         <v>17349.56864718981</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15631,7 +15835,7 @@
         <v>17349.56864718981</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15664,7 +15868,7 @@
         <v>17048.73104718981</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15697,7 +15901,7 @@
         <v>15942.22178464001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15730,7 +15934,7 @@
         <v>15942.22178464001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15763,7 +15967,7 @@
         <v>16926.57068464001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15796,7 +16000,7 @@
         <v>16926.57068464001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15829,7 +16033,7 @@
         <v>16903.97508464001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15862,7 +16066,7 @@
         <v>16949.81538464001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15895,7 +16099,7 @@
         <v>16949.81538464001</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15928,7 +16132,7 @@
         <v>16875.66378464001</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15961,7 +16165,7 @@
         <v>16875.66378464001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15994,7 +16198,7 @@
         <v>16834.51328464001</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16027,7 +16231,7 @@
         <v>16144.71028464001</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16060,7 +16264,7 @@
         <v>16144.71028464001</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16093,7 +16297,7 @@
         <v>15370.28078464001</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16126,7 +16330,7 @@
         <v>15317.92788464001</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16159,7 +16363,7 @@
         <v>15387.92788464001</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16192,7 +16396,7 @@
         <v>14797.43318464001</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16225,7 +16429,7 @@
         <v>14797.43318464001</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16258,7 +16462,7 @@
         <v>15306.75538464001</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16291,7 +16495,7 @@
         <v>12591.13388464001</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16324,7 +16528,7 @@
         <v>14082.08138464001</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16357,7 +16561,7 @@
         <v>14582.08138464001</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16390,7 +16594,7 @@
         <v>14560.83328464001</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16423,7 +16627,7 @@
         <v>14560.83328464001</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16434,6 +16638,6 @@
       <c r="M468" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest OMG.xlsx
+++ b/BackTest/2019-10-29 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>24004.7004</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>24040.09</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>23240.09</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>23944.3525</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>24047.3919</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>23515.2839</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>23415.2839</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>22284.0297</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>22274.6537</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>21686.7404</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>22479.2926</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>22479.2926</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>22589.3925</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>22589.3925</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>29057.96904902121</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>29256.11633574617</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>26653.62933172409</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>28616.67893574617</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>22003.07709811009</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>21243.22269811009</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>21806.39309811009</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>19496.0506538053</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>17969.2301538053</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>18059.9136538053</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>17902.8296538053</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>17892.8296538053</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>17892.8296538053</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>17764.6296538053</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>17664.6296538053</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>14408.6152538053</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>14408.6152538053</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>14408.6152538053</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>14600.0429538053</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>14600.0429538053</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>14128.4597538053</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>14118.4597538053</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>14279.5940538053</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>14170.0017538053</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>14174.5322538053</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>13968.4628538053</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>14041.0478538053</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>13749.7268538053</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>13749.7268538053</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>13966.0543538053</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>14592.31885380529</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>14993.6621538053</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>15043.61725380529</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>15185.14235380529</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>15183.69975380529</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>15168.10595380529</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>15268.38425380529</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>15265.73232010364</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>15088.88612010364</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>16199.15542010364</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>12932.05132010364</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>12932.05132010364</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>12915.57692010364</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>12931.57851627283</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>12626.54461627283</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>16411.90081627283</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>16445.87291627283</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>13396.68651627283</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>13403.25651627283</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>13437.15651627283</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>13467.69861627283</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>13782.69861627283</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>13782.69861627283</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>16977.44241627283</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>16912.12661627283</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>16581.12661627283</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>17341.21421627283</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>17281.38221627283</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>17281.38221627283</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>17281.38221627283</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>17138.38221627283</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>18166.81321627283</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>18110.54621627283</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>18129.13911627283</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>18131.46571627283</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>17240.37511627283</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>17235.38761627283</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>17375.45691627283</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>17278.01991627283</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>17340.07653509261</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>16223.17983509261</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>16124.90223509261</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>14853.55623509261</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>14853.55623509261</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>14853.55623509261</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>14808.86653509261</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>14808.86653509261</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>14808.86653509261</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>12228.35653509261</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>10505.02113509261</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -8008,14 +8008,10 @@
         <v>-552.0705380883159</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1190</v>
-      </c>
-      <c r="J231" t="n">
-        <v>1190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
@@ -8045,19 +8041,11 @@
         <v>-552.0705380883159</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1192</v>
-      </c>
-      <c r="J232" t="n">
-        <v>1190</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8086,19 +8074,11 @@
         <v>-552.0705380883159</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1192</v>
-      </c>
-      <c r="J233" t="n">
-        <v>1190</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8292,17 +8272,11 @@
         <v>-3382.260438088315</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8331,17 +8305,11 @@
         <v>-3379.253638088315</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1180</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8370,17 +8338,11 @@
         <v>-3379.253638088315</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8409,17 +8371,11 @@
         <v>-3379.253638088315</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8452,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8489,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8526,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8563,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8600,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8637,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8674,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8707,17 +8635,11 @@
         <v>-7798.076538088314</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8746,17 +8668,11 @@
         <v>-7798.076538088314</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8785,17 +8701,11 @@
         <v>-7625.898738088314</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8824,17 +8734,11 @@
         <v>-7625.898738088314</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8863,17 +8767,11 @@
         <v>-7625.898738088314</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8902,17 +8800,11 @@
         <v>-7604.187738088313</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8945,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8982,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9019,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9056,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9093,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9167,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9204,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9241,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9278,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9315,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9352,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9389,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9426,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9463,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9496,17 +9328,11 @@
         <v>-9460.728275910422</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9539,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9572,17 +9394,11 @@
         <v>-7195.997475910423</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>1187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9611,17 +9427,11 @@
         <v>-7195.997475910423</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>1196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9654,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9728,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9761,17 +9559,11 @@
         <v>-7576.043475910423</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9800,17 +9592,11 @@
         <v>-7564.419575910423</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9843,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9880,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9917,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9954,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9991,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10028,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10061,17 +9823,11 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>1181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10100,17 +9856,11 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>1187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10143,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10180,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10217,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10254,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10291,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10328,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10365,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10402,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10439,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10476,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10509,17 +10219,11 @@
         <v>-1002.189062522004</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10556,7 +10260,7 @@
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L299" t="n">
@@ -10626,11 +10330,9 @@
         <v>-1086.261462522004</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>1178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10975,9 +10677,11 @@
         <v>151.5186374779959</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1176</v>
+      </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11012,9 +10716,11 @@
         <v>219.0191374779959</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1176</v>
+      </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11049,9 +10755,11 @@
         <v>1303.748237477996</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1181</v>
+      </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -15008,16 +14716,18 @@
         <v>18237.0761279682</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L419" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
       <c r="M419" t="inlineStr"/>
     </row>
     <row r="420">
@@ -15043,11 +14753,15 @@
         <v>18949.8263279682</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15076,11 +14790,15 @@
         <v>16842.0917279682</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15109,11 +14827,15 @@
         <v>15853.1383279682</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15142,11 +14864,15 @@
         <v>17289.2560279682</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15175,11 +14901,15 @@
         <v>17041.5452279682</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15208,11 +14938,15 @@
         <v>17370.3218279682</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15241,11 +14975,15 @@
         <v>17338.4170279682</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15274,11 +15012,15 @@
         <v>17207.2461279682</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15307,11 +15049,15 @@
         <v>17702.2761279682</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15340,11 +15086,15 @@
         <v>17773.5196279682</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15373,11 +15123,15 @@
         <v>17816.3485279682</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15406,11 +15160,15 @@
         <v>18433.5894279682</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15439,11 +15197,15 @@
         <v>18380.0702279682</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15472,11 +15234,15 @@
         <v>17780.1341279682</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15505,11 +15271,15 @@
         <v>18589.4185279682</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15538,11 +15308,15 @@
         <v>18589.0770279682</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15571,11 +15345,15 @@
         <v>18597.5521279682</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15604,11 +15382,15 @@
         <v>18762.6196279682</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15637,11 +15419,15 @@
         <v>17975.71462796821</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15670,11 +15456,15 @@
         <v>17975.71462796821</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15703,11 +15493,15 @@
         <v>17327.11514718981</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15736,11 +15530,15 @@
         <v>17327.11514718981</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15769,11 +15567,15 @@
         <v>17327.11514718981</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15802,11 +15604,15 @@
         <v>17349.56864718981</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15835,11 +15641,15 @@
         <v>17349.56864718981</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15868,11 +15678,15 @@
         <v>17048.73104718981</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15901,11 +15715,15 @@
         <v>15942.22178464001</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15934,11 +15752,15 @@
         <v>15942.22178464001</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15967,11 +15789,15 @@
         <v>16926.57068464001</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16000,11 +15826,15 @@
         <v>16926.57068464001</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16033,11 +15863,15 @@
         <v>16903.97508464001</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16066,11 +15900,15 @@
         <v>16949.81538464001</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16099,11 +15937,15 @@
         <v>16949.81538464001</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16132,11 +15974,15 @@
         <v>16875.66378464001</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16165,11 +16011,15 @@
         <v>16875.66378464001</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16198,11 +16048,15 @@
         <v>16834.51328464001</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16231,11 +16085,15 @@
         <v>16144.71028464001</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16264,11 +16122,15 @@
         <v>16144.71028464001</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16297,11 +16159,15 @@
         <v>15370.28078464001</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16330,11 +16196,15 @@
         <v>15317.92788464001</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16363,11 +16233,15 @@
         <v>15387.92788464001</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16396,11 +16270,15 @@
         <v>14797.43318464001</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16429,11 +16307,15 @@
         <v>14797.43318464001</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16462,11 +16344,15 @@
         <v>15306.75538464001</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16495,11 +16381,15 @@
         <v>12591.13388464001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16528,11 +16418,15 @@
         <v>14082.08138464001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16561,11 +16455,15 @@
         <v>14582.08138464001</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16594,11 +16492,15 @@
         <v>14560.83328464001</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16627,17 +16529,21 @@
         <v>14560.83328464001</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
       <c r="M468" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest OMG.xlsx
+++ b/BackTest/2019-10-29 BackTest OMG.xlsx
@@ -484,7 +484,7 @@
         <v>24004.7004</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>24040.09</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>23240.09</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>23944.3525</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>24047.3919</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>23515.2839</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>23415.2839</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>22284.0297</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>22274.6537</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>21686.7404</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>22479.2926</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>22479.2926</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>22589.3925</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>22589.3925</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -9262,11 +9262,17 @@
         <v>-9449.982075910422</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1192</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9301,17 @@
         <v>-9449.982075910422</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1192</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9344,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9377,17 @@
         <v>-9462.523775910422</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1191</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9416,17 @@
         <v>-7195.997475910423</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1187</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9455,17 @@
         <v>-7195.997475910423</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1196</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9494,17 @@
         <v>-7252.823575910423</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1196</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9533,17 @@
         <v>-7288.224475910422</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1191</v>
+      </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9572,17 @@
         <v>-7793.983175910423</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1190</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9611,17 @@
         <v>-7576.043475910423</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1185</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9650,17 @@
         <v>-7564.419575910423</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1193</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9689,17 @@
         <v>-7592.919575910423</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1196</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9728,17 @@
         <v>-6413.751675910424</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1195</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9767,17 @@
         <v>-6736.369675910424</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1200</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +9806,17 @@
         <v>-7008.594875910424</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1188</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9845,17 @@
         <v>-6657.152075910424</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1175</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9884,17 @@
         <v>-6657.152075910424</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>1181</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9923,17 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1181</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +9962,17 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1187</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +10001,17 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1187</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +10040,17 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1187</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10079,17 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1187</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10122,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10155,17 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1187</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10198,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10235,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10272,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10309,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10342,17 @@
         <v>-997.793162522004</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1191</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10381,17 @@
         <v>-1002.189062522004</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1186</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10260,7 +10428,7 @@
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L299" t="n">
@@ -10330,9 +10498,11 @@
         <v>-1086.261462522004</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1178</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10640,9 +10810,11 @@
         <v>151.5186374779959</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1189</v>
+      </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11090,9 +11262,11 @@
         <v>1027.259237477996</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>1180</v>
+      </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -13680,18 +13854,16 @@
         <v>16017.44893084293</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="inlineStr"/>
     </row>
     <row r="392">
@@ -13717,15 +13889,11 @@
         <v>15891.96723084293</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13754,15 +13922,11 @@
         <v>16523.16723084293</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13795,11 +13959,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13828,15 +13988,11 @@
         <v>19161.81649320684</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13865,15 +14021,11 @@
         <v>19134.32649320684</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13902,15 +14054,11 @@
         <v>18987.28829320684</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13939,15 +14087,11 @@
         <v>15767.26739320684</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13976,15 +14120,11 @@
         <v>18581.98786501999</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14013,15 +14153,11 @@
         <v>18223.4221279682</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14054,11 +14190,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14091,11 +14223,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14128,11 +14256,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14165,11 +14289,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14202,11 +14322,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14239,11 +14355,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14276,11 +14388,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14313,11 +14421,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14350,11 +14454,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14387,11 +14487,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14424,11 +14520,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14461,11 +14553,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14498,11 +14586,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14535,11 +14619,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14572,11 +14652,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14609,11 +14685,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14646,11 +14718,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14679,15 +14747,11 @@
         <v>19908.5740279682</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14720,11 +14784,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14757,11 +14817,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14794,11 +14850,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14827,15 +14879,11 @@
         <v>15853.1383279682</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14868,11 +14916,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14949,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14942,11 +14982,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14979,11 +15015,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15016,11 +15048,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15053,11 +15081,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15090,11 +15114,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +15147,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15164,11 +15180,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15201,11 +15213,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15238,11 +15246,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15275,11 +15279,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15312,11 +15312,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15349,11 +15345,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15386,11 +15378,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15423,11 +15411,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15460,11 +15444,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15497,11 +15477,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15534,11 +15510,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15571,11 +15543,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15608,11 +15576,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15645,11 +15609,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15682,11 +15642,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15719,11 +15675,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15756,11 +15708,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15793,11 +15741,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15830,11 +15774,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15867,11 +15807,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15904,11 +15840,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15941,11 +15873,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15978,11 +15906,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16015,11 +15939,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16052,11 +15972,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16089,11 +16005,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16038,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16163,11 +16071,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16200,11 +16104,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16237,11 +16137,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16274,11 +16170,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16311,11 +16203,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16348,11 +16236,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16385,11 +16269,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16422,11 +16302,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16459,11 +16335,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16496,11 +16368,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16533,11 +16401,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
